--- a/Hackathon_Bookshelf/testresult_firefox.xlsx
+++ b/Hackathon_Bookshelf/testresult_firefox.xlsx
@@ -4,19 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8415"/>
+    <workbookView windowHeight="8415" windowWidth="19935"/>
   </bookViews>
   <sheets>
-    <sheet name="testresult" sheetId="1" r:id="rId1"/>
+    <sheet name="testresult" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Babylon Floor/Wall Shelf</t>
+  </si>
+  <si>
+    <t>5699</t>
+  </si>
+  <si>
+    <t>Austen Bookshelf/Display Unit</t>
+  </si>
+  <si>
+    <t>10399</t>
+  </si>
+  <si>
+    <t>Boeberg Bookshelf</t>
+  </si>
+  <si>
+    <t>13599</t>
+  </si>
+  <si>
+    <t>14417</t>
+  </si>
+  <si>
+    <t>Boeberg Bookshelf/Display Unit</t>
+  </si>
+  <si>
+    <t>11899</t>
+  </si>
+  <si>
+    <t>Ray Executive Study Chair</t>
+  </si>
+  <si>
+    <t>15999</t>
+  </si>
+  <si>
+    <t>Elian Study Chair</t>
+  </si>
+  <si>
+    <t>5499</t>
   </si>
 </sst>
 </file>
@@ -24,8 +63,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -496,211 +535,211 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="00000000"/>
@@ -719,10 +758,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -886,21 +925,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -917,7 +956,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -970,9 +1009,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A6:A164"/>
+  <dimension ref="A6:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
       <selection activeCell="B122" sqref="B122"/>
@@ -1380,8 +1419,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>